--- a/src/main/resources/SH688098.xlsx
+++ b/src/main/resources/SH688098.xlsx
@@ -174,11 +174,51 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20200812</t>
+          <t>20200911</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2350.0</v>
+        <v>2016.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20201013</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2361.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1818.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20201105</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2085.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20210113</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1355.0</v>
       </c>
     </row>
   </sheetData>
